--- a/data/codebooks/diabetes_features_by_year.xlsx
+++ b/data/codebooks/diabetes_features_by_year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ML\DU\repos\projects\project-2\DU-project-2\data\codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C0C3BB-4A62-4708-A265-1755524D990B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F01708F-7026-4ECF-A335-BACA9B2F14D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="440" windowWidth="14650" windowHeight="19300" xr2:uid="{B2F01B8D-487D-4741-B5A2-CECB8B1A02EE}"/>
+    <workbookView xWindow="9520" yWindow="5570" windowWidth="19930" windowHeight="14890" xr2:uid="{B2F01B8D-487D-4741-B5A2-CECB8B1A02EE}"/>
   </bookViews>
   <sheets>
     <sheet name="diabetes_features_by_year" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">diabetes_features_by_year!$A$1:$AH$71</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -467,14 +480,15 @@
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -818,14 +832,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -874,15 +890,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1234,12 +1242,13 @@
       <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A2:A29"/>
+      <selection pane="bottomRight" activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.35">
@@ -1407,7 +1416,7 @@
       <c r="V2" t="s">
         <v>2</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="4" t="s">
         <v>52</v>
       </c>
       <c r="X2" t="s">
@@ -1511,7 +1520,7 @@
       <c r="V3" t="s">
         <v>2</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="4" t="s">
         <v>55</v>
       </c>
       <c r="X3" t="s">
@@ -1550,7 +1559,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1615,8 +1624,8 @@
       <c r="V4" t="s">
         <v>1</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>95</v>
+      <c r="W4" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="X4" t="s">
         <v>1</v>
@@ -1649,116 +1658,20 @@
         <v>2</v>
       </c>
       <c r="AH4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>1</v>
-      </c>
-      <c r="R5" t="s">
-        <v>1</v>
-      </c>
-      <c r="S5" t="s">
-        <v>1</v>
-      </c>
-      <c r="T5" t="s">
-        <v>1</v>
-      </c>
-      <c r="U5" t="s">
-        <v>1</v>
-      </c>
-      <c r="V5" t="s">
-        <v>1</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="X5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>2</v>
+        <v>82</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1823,8 +1736,8 @@
       <c r="V6" t="s">
         <v>1</v>
       </c>
-      <c r="W6" t="s">
-        <v>97</v>
+      <c r="W6" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="X6" t="s">
         <v>1</v>
@@ -1836,16 +1749,16 @@
         <v>1</v>
       </c>
       <c r="AA6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="s">
         <v>2</v>
@@ -1862,7 +1775,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1910,58 +1823,58 @@
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V7" t="s">
-        <v>2</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>81</v>
+        <v>1</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="X7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="s">
         <v>2</v>
       </c>
       <c r="AH7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.35">
@@ -2031,7 +1944,7 @@
       <c r="V8" t="s">
         <v>2</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="W8" s="6" t="s">
         <v>46</v>
       </c>
       <c r="X8" t="s">
@@ -2070,111 +1983,15 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
-        <v>1</v>
-      </c>
-      <c r="P9" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>1</v>
-      </c>
-      <c r="R9" t="s">
-        <v>1</v>
-      </c>
-      <c r="S9" t="s">
-        <v>1</v>
-      </c>
-      <c r="T9" t="s">
-        <v>1</v>
-      </c>
-      <c r="U9" t="s">
-        <v>1</v>
-      </c>
-      <c r="V9" t="s">
-        <v>1</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="X9" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -2222,63 +2039,63 @@
         <v>1</v>
       </c>
       <c r="Q10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="X10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG10" t="s">
         <v>2</v>
       </c>
       <c r="AH10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -2326,46 +2143,46 @@
         <v>1</v>
       </c>
       <c r="Q11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>2</v>
-      </c>
-      <c r="W11" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="X11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="s">
         <v>2</v>
@@ -2382,7 +2199,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -2447,29 +2264,29 @@
       <c r="V12" t="s">
         <v>1</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>77</v>
+      <c r="W12" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="X12" t="s">
         <v>1</v>
       </c>
       <c r="Y12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="s">
         <v>2</v>
@@ -2486,76 +2303,76 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13" t="s">
-        <v>1</v>
-      </c>
-      <c r="W13" s="5" t="s">
-        <v>96</v>
+        <v>2</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="X13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y13" t="s">
         <v>2</v>
@@ -2590,16 +2407,16 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
@@ -2655,8 +2472,8 @@
       <c r="V14" t="s">
         <v>2</v>
       </c>
-      <c r="W14" t="s">
-        <v>16</v>
+      <c r="W14" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="X14" t="s">
         <v>2</v>
@@ -2694,7 +2511,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -2706,88 +2523,88 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15" t="s">
-        <v>2</v>
-      </c>
-      <c r="W15" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="X15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="s">
         <v>2</v>
@@ -2863,7 +2680,7 @@
       <c r="V16" t="s">
         <v>1</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="W16" s="6" t="s">
         <v>98</v>
       </c>
       <c r="X16" t="s">
@@ -2967,7 +2784,7 @@
       <c r="V17" t="s">
         <v>2</v>
       </c>
-      <c r="W17" t="s">
+      <c r="W17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="X17" t="s">
@@ -3006,7 +2823,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -3071,8 +2888,8 @@
       <c r="V18" t="s">
         <v>1</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>79</v>
+      <c r="W18" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="X18" t="s">
         <v>1</v>
@@ -3096,89 +2913,946 @@
         <v>1</v>
       </c>
       <c r="AE18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG18" t="s">
         <v>2</v>
       </c>
       <c r="AH18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>83</v>
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" t="s">
+        <v>2</v>
+      </c>
+      <c r="W19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="W20" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
+        <v>1</v>
+      </c>
+      <c r="U20" t="s">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
+        <v>1</v>
+      </c>
+      <c r="W20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>85</v>
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s">
+        <v>1</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
+        <v>1</v>
+      </c>
+      <c r="U21" t="s">
+        <v>1</v>
+      </c>
+      <c r="V21" t="s">
+        <v>1</v>
+      </c>
+      <c r="X21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="W22" s="5"/>
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s">
+        <v>1</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
+        <v>1</v>
+      </c>
+      <c r="U22" t="s">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
+        <v>2</v>
+      </c>
+      <c r="X22" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="W23" s="5"/>
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s">
+        <v>1</v>
+      </c>
+      <c r="S23" t="s">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
+        <v>1</v>
+      </c>
+      <c r="U23" t="s">
+        <v>1</v>
+      </c>
+      <c r="V23" t="s">
+        <v>1</v>
+      </c>
+      <c r="X23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="W24" s="5"/>
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s">
+        <v>1</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s">
+        <v>1</v>
+      </c>
+      <c r="U24" t="s">
+        <v>1</v>
+      </c>
+      <c r="V24" t="s">
+        <v>1</v>
+      </c>
+      <c r="X24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>90</v>
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S25" t="s">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s">
+        <v>2</v>
+      </c>
+      <c r="U25" t="s">
+        <v>2</v>
+      </c>
+      <c r="V25" t="s">
+        <v>2</v>
+      </c>
+      <c r="X25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>93</v>
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s">
+        <v>1</v>
+      </c>
+      <c r="S28" t="s">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s">
+        <v>1</v>
+      </c>
+      <c r="U28" t="s">
+        <v>1</v>
+      </c>
+      <c r="V28" t="s">
+        <v>2</v>
       </c>
       <c r="X28" t="s">
-        <v>94</v>
+        <v>2</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>99</v>
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>1</v>
+      </c>
+      <c r="R29" t="s">
+        <v>1</v>
+      </c>
+      <c r="S29" t="s">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s">
+        <v>1</v>
+      </c>
+      <c r="U29" t="s">
+        <v>1</v>
+      </c>
+      <c r="V29" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -3247,31 +3921,31 @@
         <v>1</v>
       </c>
       <c r="Y30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF30" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="AH30" t="s">
         <v>2</v>
@@ -3279,7 +3953,7 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -3342,37 +4016,37 @@
         <v>1</v>
       </c>
       <c r="V31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF31" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG31" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="AH31" t="s">
         <v>2</v>
@@ -3380,7 +4054,7 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -3473,116 +4147,23 @@
         <v>1</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH32" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" t="s">
-        <v>1</v>
-      </c>
-      <c r="I33" t="s">
-        <v>1</v>
-      </c>
-      <c r="J33" t="s">
-        <v>1</v>
-      </c>
-      <c r="K33" t="s">
-        <v>1</v>
-      </c>
-      <c r="L33" t="s">
-        <v>1</v>
-      </c>
-      <c r="M33" t="s">
-        <v>1</v>
-      </c>
-      <c r="N33" t="s">
-        <v>1</v>
-      </c>
-      <c r="O33" t="s">
-        <v>1</v>
-      </c>
-      <c r="P33" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>1</v>
-      </c>
-      <c r="R33" t="s">
-        <v>1</v>
-      </c>
-      <c r="S33" t="s">
-        <v>1</v>
-      </c>
-      <c r="T33" t="s">
-        <v>1</v>
-      </c>
-      <c r="U33" t="s">
-        <v>1</v>
-      </c>
-      <c r="V33" t="s">
-        <v>1</v>
+      <c r="A33" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="X33" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -3683,7 +4264,7 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -3731,19 +4312,19 @@
         <v>1</v>
       </c>
       <c r="Q35" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R35" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S35" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T35" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U35" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V35" t="s">
         <v>2</v>
@@ -3758,10 +4339,10 @@
         <v>2</v>
       </c>
       <c r="AA35" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB35" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC35" t="s">
         <v>2</v>
@@ -3784,7 +4365,7 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -3877,116 +4458,20 @@
         <v>1</v>
       </c>
       <c r="AG36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH36" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
-        <v>1</v>
-      </c>
-      <c r="I37" t="s">
-        <v>1</v>
-      </c>
-      <c r="J37" t="s">
-        <v>1</v>
-      </c>
-      <c r="K37" t="s">
-        <v>1</v>
-      </c>
-      <c r="L37" t="s">
-        <v>1</v>
-      </c>
-      <c r="M37" t="s">
-        <v>1</v>
-      </c>
-      <c r="N37" t="s">
-        <v>1</v>
-      </c>
-      <c r="O37" t="s">
-        <v>1</v>
-      </c>
-      <c r="P37" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>1</v>
-      </c>
-      <c r="R37" t="s">
-        <v>1</v>
-      </c>
-      <c r="S37" t="s">
-        <v>1</v>
-      </c>
-      <c r="T37" t="s">
-        <v>1</v>
-      </c>
-      <c r="U37" t="s">
-        <v>1</v>
-      </c>
-      <c r="V37" t="s">
-        <v>1</v>
-      </c>
-      <c r="X37" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>2</v>
+      <c r="A37" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -4073,13 +4558,13 @@
         <v>1</v>
       </c>
       <c r="AE38" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF38" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG38" s="2" t="s">
-        <v>73</v>
+        <v>2</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>2</v>
       </c>
       <c r="AH38" t="s">
         <v>2</v>
@@ -4087,7 +4572,7 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -4156,31 +4641,31 @@
         <v>1</v>
       </c>
       <c r="Y39" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z39" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA39" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB39" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC39" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD39" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE39" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF39" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG39" s="2" t="s">
-        <v>74</v>
+        <v>2</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>2</v>
       </c>
       <c r="AH39" t="s">
         <v>2</v>
@@ -4188,7 +4673,7 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -4224,10 +4709,10 @@
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O40" t="s">
         <v>2</v>
@@ -4239,57 +4724,57 @@
         <v>2</v>
       </c>
       <c r="R40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S40" t="s">
         <v>2</v>
       </c>
       <c r="T40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V40" t="s">
         <v>2</v>
       </c>
       <c r="X40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y40" t="s">
         <v>2</v>
       </c>
       <c r="Z40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA40" t="s">
         <v>2</v>
       </c>
       <c r="AB40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC40" t="s">
         <v>2</v>
       </c>
       <c r="AD40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE40" t="s">
         <v>2</v>
       </c>
       <c r="AF40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG40" t="s">
         <v>2</v>
       </c>
       <c r="AH40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
@@ -4337,31 +4822,31 @@
         <v>1</v>
       </c>
       <c r="Q41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA41" t="s">
         <v>2</v>
@@ -4390,7 +4875,7 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
@@ -4477,13 +4962,13 @@
         <v>1</v>
       </c>
       <c r="AE42" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF42" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG42" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH42" t="s">
         <v>2</v>
@@ -4491,7 +4976,7 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
@@ -4545,37 +5030,37 @@
         <v>1</v>
       </c>
       <c r="S43" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T43" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U43" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V43" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X43" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y43" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z43" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA43" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB43" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC43" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD43" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE43" t="s">
         <v>2</v>
@@ -4592,7 +5077,7 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -4637,28 +5122,28 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q44" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R44" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S44" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T44" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U44" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V44" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X44" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y44" t="s">
         <v>2</v>
@@ -4693,7 +5178,7 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -4729,25 +5214,25 @@
         <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R45" t="s">
         <v>1</v>
       </c>
       <c r="S45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T45" t="s">
         <v>1</v>
@@ -4756,31 +5241,31 @@
         <v>1</v>
       </c>
       <c r="V45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X45" t="s">
         <v>1</v>
       </c>
       <c r="Y45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z45" t="s">
         <v>1</v>
       </c>
       <c r="AA45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB45" t="s">
         <v>1</v>
       </c>
       <c r="AC45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD45" t="s">
         <v>1</v>
       </c>
       <c r="AE45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF45" t="s">
         <v>1</v>
@@ -4794,7 +5279,7 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -4854,10 +5339,10 @@
         <v>1</v>
       </c>
       <c r="U46" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V46" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X46" t="s">
         <v>1</v>
@@ -4895,7 +5380,7 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -4976,19 +5461,19 @@
         <v>1</v>
       </c>
       <c r="AC47" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD47" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH47" t="s">
         <v>2</v>
@@ -4996,7 +5481,7 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -5050,46 +5535,46 @@
         <v>1</v>
       </c>
       <c r="S48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH48" t="s">
         <v>2</v>
@@ -5097,7 +5582,7 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -5142,55 +5627,55 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH49" t="s">
         <v>2</v>
@@ -5198,7 +5683,7 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -5291,15 +5776,15 @@
         <v>1</v>
       </c>
       <c r="AG50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH50" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -5359,10 +5844,10 @@
         <v>1</v>
       </c>
       <c r="U51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X51" t="s">
         <v>1</v>
@@ -5374,25 +5859,25 @@
         <v>1</v>
       </c>
       <c r="AA51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH51" t="s">
         <v>2</v>
@@ -5400,7 +5885,7 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -5454,31 +5939,31 @@
         <v>1</v>
       </c>
       <c r="S52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC52" t="s">
         <v>2</v>
@@ -5487,13 +5972,13 @@
         <v>2</v>
       </c>
       <c r="AE52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH52" t="s">
         <v>2</v>
@@ -5501,7 +5986,7 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
@@ -5579,22 +6064,22 @@
         <v>1</v>
       </c>
       <c r="AB53" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC53" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD53" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE53" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF53" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG53" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH53" t="s">
         <v>2</v>
@@ -5602,7 +6087,7 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
@@ -5703,7 +6188,7 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -5804,7 +6289,7 @@
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
@@ -5873,31 +6358,31 @@
         <v>1</v>
       </c>
       <c r="Y56" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z56" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA56" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB56" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC56" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD56" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE56" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF56" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG56" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH56" t="s">
         <v>2</v>
@@ -5905,7 +6390,7 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
@@ -5941,22 +6426,22 @@
         <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S57" t="s">
         <v>2</v>
@@ -6006,7 +6491,7 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
@@ -6084,10 +6569,10 @@
         <v>1</v>
       </c>
       <c r="AB58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD58" t="s">
         <v>2</v>
@@ -6107,7 +6592,7 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
@@ -6140,28 +6625,28 @@
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T59" t="s">
         <v>1</v>
@@ -6208,7 +6693,7 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
@@ -6295,324 +6780,39 @@
         <v>1</v>
       </c>
       <c r="AE60" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF60" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG60" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH60" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
-        <v>1</v>
-      </c>
-      <c r="G61" t="s">
-        <v>1</v>
-      </c>
-      <c r="H61" t="s">
-        <v>1</v>
-      </c>
-      <c r="I61" t="s">
-        <v>1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>1</v>
-      </c>
-      <c r="K61" t="s">
-        <v>1</v>
-      </c>
-      <c r="L61" t="s">
-        <v>1</v>
-      </c>
-      <c r="M61" t="s">
-        <v>1</v>
-      </c>
-      <c r="N61" t="s">
-        <v>1</v>
-      </c>
-      <c r="O61" t="s">
-        <v>1</v>
-      </c>
-      <c r="P61" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>1</v>
-      </c>
-      <c r="R61" t="s">
-        <v>1</v>
-      </c>
-      <c r="S61" t="s">
-        <v>1</v>
-      </c>
-      <c r="T61" t="s">
-        <v>1</v>
-      </c>
-      <c r="U61" t="s">
-        <v>1</v>
-      </c>
-      <c r="V61" t="s">
-        <v>1</v>
-      </c>
-      <c r="X61" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD61" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF61" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH61" t="s">
-        <v>2</v>
-      </c>
+      <c r="A61" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W61" s="3"/>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>1</v>
-      </c>
-      <c r="G62" t="s">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
-        <v>1</v>
-      </c>
-      <c r="I62" t="s">
-        <v>1</v>
-      </c>
-      <c r="J62" t="s">
-        <v>1</v>
-      </c>
-      <c r="K62" t="s">
-        <v>1</v>
-      </c>
-      <c r="L62" t="s">
-        <v>1</v>
-      </c>
-      <c r="M62" t="s">
-        <v>2</v>
-      </c>
-      <c r="N62" t="s">
-        <v>2</v>
-      </c>
-      <c r="O62" t="s">
-        <v>2</v>
-      </c>
-      <c r="P62" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>2</v>
-      </c>
-      <c r="R62" t="s">
-        <v>2</v>
-      </c>
-      <c r="S62" t="s">
-        <v>2</v>
-      </c>
-      <c r="T62" t="s">
-        <v>2</v>
-      </c>
-      <c r="U62" t="s">
-        <v>2</v>
-      </c>
-      <c r="V62" t="s">
-        <v>2</v>
-      </c>
-      <c r="X62" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC62" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF62" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH62" t="s">
-        <v>2</v>
-      </c>
+      <c r="A62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="W62" s="3"/>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>30</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
-        <v>1</v>
-      </c>
-      <c r="G63" t="s">
-        <v>1</v>
-      </c>
-      <c r="H63" t="s">
-        <v>1</v>
-      </c>
-      <c r="I63" t="s">
-        <v>1</v>
-      </c>
-      <c r="J63" t="s">
-        <v>1</v>
-      </c>
-      <c r="K63" t="s">
-        <v>1</v>
-      </c>
-      <c r="L63" t="s">
-        <v>1</v>
-      </c>
-      <c r="M63" t="s">
-        <v>1</v>
-      </c>
-      <c r="N63" t="s">
-        <v>1</v>
-      </c>
-      <c r="O63" t="s">
-        <v>1</v>
-      </c>
-      <c r="P63" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>1</v>
-      </c>
-      <c r="R63" t="s">
-        <v>1</v>
-      </c>
-      <c r="S63" t="s">
-        <v>1</v>
-      </c>
-      <c r="T63" t="s">
-        <v>1</v>
-      </c>
-      <c r="U63" t="s">
-        <v>1</v>
-      </c>
-      <c r="V63" t="s">
-        <v>1</v>
-      </c>
-      <c r="X63" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF63" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH63" t="s">
-        <v>2</v>
-      </c>
+      <c r="A63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="W63" s="3"/>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -6645,28 +6845,28 @@
         <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T64" t="s">
         <v>1</v>
@@ -6699,13 +6899,13 @@
         <v>1</v>
       </c>
       <c r="AE64" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF64" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG64" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH64" t="s">
         <v>2</v>
@@ -6713,7 +6913,7 @@
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
@@ -6809,12 +7009,12 @@
         <v>2</v>
       </c>
       <c r="AH65" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
@@ -6901,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="AE66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF66" t="s">
         <v>2</v>
@@ -6915,91 +7115,91 @@
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE67" t="s">
         <v>2</v>
@@ -7011,12 +7211,12 @@
         <v>2</v>
       </c>
       <c r="AH67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
@@ -7028,82 +7228,82 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF68" t="s">
         <v>2</v>
@@ -7117,52 +7317,52 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q69" t="s">
         <v>2</v>
@@ -7218,7 +7418,7 @@
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
@@ -7230,85 +7430,85 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG70" t="s">
         <v>2</v>
@@ -7318,109 +7518,14 @@
       </c>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>42</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>1</v>
-      </c>
-      <c r="F71" t="s">
-        <v>1</v>
-      </c>
-      <c r="G71" t="s">
-        <v>1</v>
-      </c>
-      <c r="H71" t="s">
-        <v>1</v>
-      </c>
-      <c r="I71" t="s">
-        <v>1</v>
-      </c>
-      <c r="J71" t="s">
-        <v>1</v>
-      </c>
-      <c r="K71" t="s">
-        <v>1</v>
-      </c>
-      <c r="L71" t="s">
-        <v>1</v>
-      </c>
-      <c r="M71" t="s">
-        <v>1</v>
-      </c>
-      <c r="N71" t="s">
-        <v>1</v>
-      </c>
-      <c r="O71" t="s">
-        <v>1</v>
-      </c>
-      <c r="P71" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>2</v>
-      </c>
-      <c r="R71" t="s">
-        <v>2</v>
-      </c>
-      <c r="S71" t="s">
-        <v>2</v>
-      </c>
-      <c r="T71" t="s">
-        <v>2</v>
-      </c>
-      <c r="U71" t="s">
-        <v>2</v>
-      </c>
-      <c r="V71" t="s">
-        <v>2</v>
-      </c>
-      <c r="X71" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA71" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB71" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC71" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD71" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE71" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF71" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG71" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH71" t="s">
-        <v>2</v>
-      </c>
+      <c r="A71" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="W71" s="3"/>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
@@ -7480,149 +7585,149 @@
         <v>1</v>
       </c>
       <c r="U72" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V72" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X72" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y72" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z72" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA72" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB72" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC72" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD72" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE72" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF72" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG72" t="s">
         <v>2</v>
       </c>
       <c r="AH72" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
+        <v>1</v>
+      </c>
+      <c r="L73" t="s">
+        <v>1</v>
+      </c>
+      <c r="M73" t="s">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>1</v>
+      </c>
+      <c r="O73" t="s">
+        <v>1</v>
+      </c>
+      <c r="P73" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>1</v>
+      </c>
+      <c r="R73" t="s">
+        <v>1</v>
+      </c>
+      <c r="S73" t="s">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s">
+        <v>1</v>
+      </c>
+      <c r="U73" t="s">
+        <v>1</v>
+      </c>
+      <c r="V73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X73" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG73" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1</v>
-      </c>
-      <c r="E73" t="s">
-        <v>1</v>
-      </c>
-      <c r="F73" t="s">
-        <v>1</v>
-      </c>
-      <c r="G73" t="s">
-        <v>1</v>
-      </c>
-      <c r="H73" t="s">
-        <v>1</v>
-      </c>
-      <c r="I73" t="s">
-        <v>1</v>
-      </c>
-      <c r="J73" t="s">
-        <v>1</v>
-      </c>
-      <c r="K73" t="s">
-        <v>1</v>
-      </c>
-      <c r="L73" t="s">
-        <v>1</v>
-      </c>
-      <c r="M73" t="s">
-        <v>1</v>
-      </c>
-      <c r="N73" t="s">
-        <v>1</v>
-      </c>
-      <c r="O73" t="s">
-        <v>1</v>
-      </c>
-      <c r="P73" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>1</v>
-      </c>
-      <c r="R73" t="s">
-        <v>1</v>
-      </c>
-      <c r="S73" t="s">
-        <v>1</v>
-      </c>
-      <c r="T73" t="s">
-        <v>1</v>
-      </c>
-      <c r="U73" t="s">
-        <v>2</v>
-      </c>
-      <c r="V73" t="s">
-        <v>2</v>
-      </c>
-      <c r="X73" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB73" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC73" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD73" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF73" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG73" t="s">
-        <v>2</v>
-      </c>
       <c r="AH73" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B74" t="s">
         <v>1</v>
@@ -7714,8 +7819,8 @@
       <c r="AF74" t="s">
         <v>1</v>
       </c>
-      <c r="AG74" s="2" t="s">
-        <v>69</v>
+      <c r="AG74" t="s">
+        <v>2</v>
       </c>
       <c r="AH74" t="s">
         <v>2</v>
@@ -7723,7 +7828,7 @@
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B75" t="s">
         <v>1</v>
@@ -7783,37 +7888,37 @@
         <v>1</v>
       </c>
       <c r="U75" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V75" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X75" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y75" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z75" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA75" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB75" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC75" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD75" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE75" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF75" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG75" t="s">
         <v>2</v>
@@ -7824,7 +7929,7 @@
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B76" t="s">
         <v>1</v>
@@ -7884,16 +7989,16 @@
         <v>1</v>
       </c>
       <c r="U76" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V76" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X76" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y76" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z76" t="s">
         <v>2</v>
@@ -7925,7 +8030,7 @@
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B77" t="s">
         <v>1</v>
@@ -7994,13 +8099,13 @@
         <v>1</v>
       </c>
       <c r="Y77" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z77" t="s">
         <v>2</v>
       </c>
       <c r="AA77" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB77" t="s">
         <v>2</v>
@@ -8012,13 +8117,13 @@
         <v>2</v>
       </c>
       <c r="AE77" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF77" t="s">
         <v>2</v>
       </c>
-      <c r="AG77" t="s">
-        <v>2</v>
+      <c r="AG77" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="AH77" t="s">
         <v>2</v>
@@ -8026,7 +8131,7 @@
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B78" t="s">
         <v>1</v>
@@ -8095,135 +8200,39 @@
         <v>1</v>
       </c>
       <c r="Y78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA78" t="s">
         <v>1</v>
       </c>
       <c r="AB78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE78" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF78" t="s">
         <v>2</v>
       </c>
-      <c r="AG78" s="1" t="s">
-        <v>1</v>
+      <c r="AG78" t="s">
+        <v>2</v>
       </c>
       <c r="AH78" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>33</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1</v>
-      </c>
-      <c r="E79" t="s">
-        <v>1</v>
-      </c>
-      <c r="F79" t="s">
-        <v>1</v>
-      </c>
-      <c r="G79" t="s">
-        <v>1</v>
-      </c>
-      <c r="H79" t="s">
-        <v>1</v>
-      </c>
-      <c r="I79" t="s">
-        <v>1</v>
-      </c>
-      <c r="J79" t="s">
-        <v>1</v>
-      </c>
-      <c r="K79" t="s">
-        <v>1</v>
-      </c>
-      <c r="L79" t="s">
-        <v>1</v>
-      </c>
-      <c r="M79" t="s">
-        <v>1</v>
-      </c>
-      <c r="N79" t="s">
-        <v>1</v>
-      </c>
-      <c r="O79" t="s">
-        <v>1</v>
-      </c>
-      <c r="P79" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>1</v>
-      </c>
-      <c r="R79" t="s">
-        <v>1</v>
-      </c>
-      <c r="S79" t="s">
-        <v>1</v>
-      </c>
-      <c r="T79" t="s">
-        <v>1</v>
-      </c>
-      <c r="U79" t="s">
-        <v>1</v>
-      </c>
-      <c r="V79" t="s">
-        <v>1</v>
-      </c>
-      <c r="X79" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA79" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB79" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC79" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD79" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE79" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF79" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG79" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH79" t="s">
-        <v>2</v>
+      <c r="A79" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.35">
@@ -8532,11 +8541,11 @@
   </sheetData>
   <autoFilter ref="A1:AH71" xr:uid="{5E86B618-93FC-481F-9BA5-1346F0A72DB0}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH82">
-      <sortCondition sortBy="cellColor" ref="A1:A71" dxfId="1"/>
+      <sortCondition ref="W1:W71"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A41:V41 X41:AH41 A25:AH29 A24:V24 X24:AH24 A70:AH71 A69:V69 X69:AH69 A30:V30 X30:AH30 A20:AH20 A19:V19 X19:AH19 A31:AH40 A13:AH18 A12:V12 X12:AH12 A22:AH23 A21:V21 X21:AH21 A10:AH11 A9:V9 X9:AH9 A42:AH43 A44:V44 X44:AH44 A1:AH8 A45:AH54 A56:AH68 A55:V55 X55:AH55">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:AH8 A9:V9 X9:AH9 A10:AH11 A12:V12 X12:AH12 A13:AH18 A19:V19 X19:AH19 A20:AH20 A21:V21 X21:AH21 A22:AH23 A24:V24 X24:AH24 A25:AH29 A30:V30 X30:AH30 A31:AH40 A41:V41 X41:AH41 A42:AH43 A44:V44 X44:AH44 A45:AH54 A55:V55 X55:AH55 A56:AH68 A69:V69 X69:AH69 A70:AH71">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/codebooks/diabetes_features_by_year.xlsx
+++ b/data/codebooks/diabetes_features_by_year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ML\DU\repos\projects\project-2\DU-project-2\data\codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F01708F-7026-4ECF-A335-BACA9B2F14D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799416B9-307E-419D-A821-FC33FDF9BE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9520" yWindow="5570" windowWidth="19930" windowHeight="14890" xr2:uid="{B2F01B8D-487D-4741-B5A2-CECB8B1A02EE}"/>
+    <workbookView xWindow="1260" yWindow="0" windowWidth="19958" windowHeight="13680" xr2:uid="{B2F01B8D-487D-4741-B5A2-CECB8B1A02EE}"/>
   </bookViews>
   <sheets>
     <sheet name="diabetes_features_by_year" sheetId="1" r:id="rId1"/>
@@ -342,7 +342,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,8 +490,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -671,6 +677,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -832,19 +844,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -890,15 +905,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1242,7 +1249,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W20" sqref="W20"/>
+      <selection pane="bottomRight" activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1416,7 +1423,7 @@
       <c r="V2" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="6" t="s">
         <v>52</v>
       </c>
       <c r="X2" t="s">
@@ -1520,7 +1527,7 @@
       <c r="V3" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="6" t="s">
         <v>55</v>
       </c>
       <c r="X3" t="s">
@@ -1624,7 +1631,7 @@
       <c r="V4" t="s">
         <v>1</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="8" t="s">
         <v>80</v>
       </c>
       <c r="X4" t="s">
@@ -1665,7 +1672,7 @@
       <c r="A5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="W5" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1736,7 +1743,7 @@
       <c r="V6" t="s">
         <v>1</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="W6" s="5" t="s">
         <v>47</v>
       </c>
       <c r="X6" t="s">
@@ -1840,7 +1847,7 @@
       <c r="V7" t="s">
         <v>1</v>
       </c>
-      <c r="W7" s="6" t="s">
+      <c r="W7" s="4" t="s">
         <v>78</v>
       </c>
       <c r="X7" t="s">
@@ -1944,7 +1951,7 @@
       <c r="V8" t="s">
         <v>2</v>
       </c>
-      <c r="W8" s="6" t="s">
+      <c r="W8" s="5" t="s">
         <v>46</v>
       </c>
       <c r="X8" t="s">
@@ -1985,7 +1992,7 @@
       <c r="A9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="W9" s="6" t="s">
+      <c r="W9" s="5" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2056,7 +2063,7 @@
       <c r="V10" t="s">
         <v>2</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="W10" t="s">
         <v>11</v>
       </c>
       <c r="X10" t="s">
@@ -2160,7 +2167,7 @@
       <c r="V11" t="s">
         <v>1</v>
       </c>
-      <c r="W11" s="6" t="s">
+      <c r="W11" s="5" t="s">
         <v>77</v>
       </c>
       <c r="X11" t="s">
@@ -2368,7 +2375,7 @@
       <c r="V13" t="s">
         <v>2</v>
       </c>
-      <c r="W13" s="4" t="s">
+      <c r="W13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="X13" t="s">
@@ -2472,7 +2479,7 @@
       <c r="V14" t="s">
         <v>2</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="W14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="X14" t="s">
@@ -2576,7 +2583,7 @@
       <c r="V15" t="s">
         <v>1</v>
       </c>
-      <c r="W15" s="6" t="s">
+      <c r="W15" s="5" t="s">
         <v>95</v>
       </c>
       <c r="X15" t="s">
@@ -2680,7 +2687,7 @@
       <c r="V16" t="s">
         <v>1</v>
       </c>
-      <c r="W16" s="6" t="s">
+      <c r="W16" s="4" t="s">
         <v>98</v>
       </c>
       <c r="X16" t="s">
@@ -2784,7 +2791,7 @@
       <c r="V17" t="s">
         <v>2</v>
       </c>
-      <c r="W17" s="4" t="s">
+      <c r="W17" t="s">
         <v>3</v>
       </c>
       <c r="X17" t="s">
@@ -2888,7 +2895,7 @@
       <c r="V18" t="s">
         <v>1</v>
       </c>
-      <c r="W18" s="4" t="s">
+      <c r="W18" t="s">
         <v>97</v>
       </c>
       <c r="X18" t="s">
@@ -2992,7 +2999,7 @@
       <c r="V19" t="s">
         <v>2</v>
       </c>
-      <c r="W19" s="6" t="s">
+      <c r="W19" s="4" t="s">
         <v>81</v>
       </c>
       <c r="X19" t="s">
@@ -3096,7 +3103,7 @@
       <c r="V20" t="s">
         <v>1</v>
       </c>
-      <c r="W20" s="6" t="s">
+      <c r="W20" s="4" t="s">
         <v>79</v>
       </c>
       <c r="X20" t="s">
@@ -8545,7 +8552,7 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:AH8 A9:V9 X9:AH9 A10:AH11 A12:V12 X12:AH12 A13:AH18 A19:V19 X19:AH19 A20:AH20 A21:V21 X21:AH21 A22:AH23 A24:V24 X24:AH24 A25:AH29 A30:V30 X30:AH30 A31:AH40 A41:V41 X41:AH41 A42:AH43 A44:V44 X44:AH44 A45:AH54 A55:V55 X55:AH55 A56:AH68 A69:V69 X69:AH69 A70:AH71">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
